--- a/PLSstatic/PLSstatic_predicted_variables_matrix_12.xlsx
+++ b/PLSstatic/PLSstatic_predicted_variables_matrix_12.xlsx
@@ -443,530 +443,530 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.2826298885960585</v>
+        <v>-0.2719521585403843</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.3058008597521307</v>
+        <v>-0.9480512082778079</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.1471388447747995</v>
+        <v>-0.5046402318966351</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1557703420451564</v>
+        <v>-1.328230418635144</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.1367795881078448</v>
+        <v>-0.4968758457351299</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1444617692633869</v>
+        <v>-1.56067230255249</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.06142846981336137</v>
+        <v>-0.1343710193016882</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.07026967469577031</v>
+        <v>-0.4358971670648874</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.1521842631792113</v>
+        <v>-0.1901677104056745</v>
       </c>
       <c r="B6" t="n">
-        <v>0.158794992921769</v>
+        <v>-0.3246907239788171</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.4525392607794647</v>
+        <v>-0.3246880953562151</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.4590045571627527</v>
+        <v>-1.047004261679337</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.2567939648448366</v>
+        <v>-0.5200882665034741</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.2409488231871635</v>
+        <v>-1.354288945185685</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.5015397645973191</v>
+        <v>-0.6658251095750938</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.4624781428324826</v>
+        <v>-1.820634497020904</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.3401164888451339</v>
+        <v>-0.3862821647651075</v>
       </c>
       <c r="B10" t="n">
-        <v>0.3782372439833556</v>
+        <v>-0.2122899687332847</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.2356063289914674</v>
+        <v>-0.2679831408532483</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.2432439060535311</v>
+        <v>-0.8366220560994736</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.09486884588724759</v>
+        <v>-0.1357295443320637</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.09599264187191317</v>
+        <v>-0.2459148758661844</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.02359226420874817</v>
+        <v>-0.04434679156126818</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.0265728973322937</v>
+        <v>-0.08690707323059295</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.02273581569433429</v>
+        <v>-0.2232668801970721</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.0004132338422667831</v>
+        <v>-0.09222417103618752</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.1015836757428788</v>
+        <v>-0.06562417062016375</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.07690684121114962</v>
+        <v>0.03951747570295799</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.1766642676455882</v>
+        <v>-0.2825648592767291</v>
       </c>
       <c r="B16" t="n">
-        <v>0.2452426016894017</v>
+        <v>-0.6617785069003083</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.39192358108512</v>
+        <v>-0.05883505353179978</v>
       </c>
       <c r="B17" t="n">
-        <v>0.4539353063494923</v>
+        <v>0.4180184793348665</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.07749269254428877</v>
+        <v>0.1123348910098452</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.07731083043668971</v>
+        <v>0.5876146098826521</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.4127910938119075</v>
+        <v>0.1808141315001575</v>
       </c>
       <c r="B19" t="n">
-        <v>0.4258180887322626</v>
+        <v>0.5210137682756716</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.06700074462596015</v>
+        <v>-0.2778179509908926</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1070988730801872</v>
+        <v>-0.7169372435563657</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.5129393559073979</v>
+        <v>0.06127891984245044</v>
       </c>
       <c r="B21" t="n">
-        <v>0.537750790831852</v>
+        <v>0.4595633979573926</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.2207200088183366</v>
+        <v>-0.08377492228719334</v>
       </c>
       <c r="B22" t="n">
-        <v>0.2722876612166373</v>
+        <v>0.3300377871875838</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-0.1211399722656804</v>
+        <v>0.08120439994254271</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.119132837663976</v>
+        <v>0.6023096494722882</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4.140179802962131</v>
+        <v>0.8794172050174812</v>
       </c>
       <c r="B24" t="n">
-        <v>3.835220315397752</v>
+        <v>2.769622411896357</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.4953098638822495</v>
+        <v>0.1895797039263419</v>
       </c>
       <c r="B25" t="n">
-        <v>0.4585831968152117</v>
+        <v>0.7122379008115508</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.4100920983977953</v>
+        <v>0.2137308596472731</v>
       </c>
       <c r="B26" t="n">
-        <v>0.391464268199164</v>
+        <v>0.6287290635470522</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.2302519336591772</v>
+        <v>0.1449695361051999</v>
       </c>
       <c r="B27" t="n">
-        <v>0.2349846651499269</v>
+        <v>0.6937888252873274</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1.318799778352598</v>
+        <v>0.4230745641164471</v>
       </c>
       <c r="B28" t="n">
-        <v>1.139451446474236</v>
+        <v>1.354994384057687</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3.827133821440884</v>
+        <v>0.6969601030214119</v>
       </c>
       <c r="B29" t="n">
-        <v>3.494954076863622</v>
+        <v>2.47392557490438</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.984040938428513</v>
+        <v>0.2384889439052985</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9438273869842302</v>
+        <v>0.8124472388371239</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-0.193544373088274</v>
+        <v>0.1412369496037052</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.2379108235069429</v>
+        <v>0.6063764165710263</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.7559924719921491</v>
+        <v>0.2035762874408452</v>
       </c>
       <c r="B32" t="n">
-        <v>0.7638286970942634</v>
+        <v>1.075698624533763</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.8243880766013227</v>
+        <v>0.08622761833012706</v>
       </c>
       <c r="B33" t="n">
-        <v>0.838320830504541</v>
+        <v>0.736304179896366</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-0.7289826914686027</v>
+        <v>0.06523890904166356</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.7479874721342812</v>
+        <v>0.4345939322966909</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.8740761193608787</v>
+        <v>0.4704159447966034</v>
       </c>
       <c r="B35" t="n">
-        <v>0.8630054998661914</v>
+        <v>1.314106427822339</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.8161956025347914</v>
+        <v>0.2188211091452042</v>
       </c>
       <c r="B36" t="n">
-        <v>0.7986380109805832</v>
+        <v>0.5236396228262162</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.7423052158232171</v>
+        <v>-0.0230313243254189</v>
       </c>
       <c r="B37" t="n">
-        <v>0.7411987972535974</v>
+        <v>-0.1470899638659299</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.6855923811104585</v>
+        <v>0.2433689329518174</v>
       </c>
       <c r="B38" t="n">
-        <v>0.6798494714650231</v>
+        <v>1.458571259270864</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.6094780952365664</v>
+        <v>-0.1139745991102089</v>
       </c>
       <c r="B39" t="n">
-        <v>0.6052792042389624</v>
+        <v>-0.3732865694291094</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.7828841946900623</v>
+        <v>0.07844096572615572</v>
       </c>
       <c r="B40" t="n">
-        <v>0.7913335139097645</v>
+        <v>0.578274097529577</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.5778258661212512</v>
+        <v>0.0121108499720569</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5621393457519165</v>
+        <v>0.3731110870504676</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.7169243891075768</v>
+        <v>0.3307377616317541</v>
       </c>
       <c r="B42" t="n">
-        <v>0.7184180365685224</v>
+        <v>1.584342368571894</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.6808818116310212</v>
+        <v>-0.008975497306698567</v>
       </c>
       <c r="B43" t="n">
-        <v>0.6834804904813433</v>
+        <v>0.5655516150151232</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.7216631204903678</v>
+        <v>0.08766768056055341</v>
       </c>
       <c r="B44" t="n">
-        <v>0.7129711105705846</v>
+        <v>0.3961495194008971</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.7097446012694552</v>
+        <v>-0.1190181052748567</v>
       </c>
       <c r="B45" t="n">
-        <v>0.718008300056131</v>
+        <v>-0.07107604345940965</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-1.295113238980082</v>
+        <v>-0.1761622947185779</v>
       </c>
       <c r="B46" t="n">
-        <v>-1.283071614656591</v>
+        <v>-0.4900795516462431</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-1.008652838516106</v>
+        <v>-0.1787401865259877</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.9960427669501982</v>
+        <v>-0.3732203843117181</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-0.8959652052009723</v>
+        <v>-0.2274708112765429</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.8796838369861921</v>
+        <v>-0.5986664587414678</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-0.6583728821810323</v>
+        <v>-0.2261114141792094</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.6416356712181398</v>
+        <v>-0.6213793960768439</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-0.03647869843552345</v>
+        <v>-0.07579209810743265</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.0379418825319026</v>
+        <v>-0.1417118863480319</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-0.8853627263948366</v>
+        <v>-0.2516874376647317</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.8725678563066659</v>
+        <v>-0.6674725662163312</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-0.8853627263948366</v>
+        <v>-0.2516874376647317</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.8725678563066659</v>
+        <v>-0.6674725662163312</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-1.156328185011314</v>
+        <v>-0.2116181978129459</v>
       </c>
       <c r="B53" t="n">
-        <v>-1.140351105837399</v>
+        <v>-0.450445904738707</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-0.1822900812813008</v>
+        <v>-0.2029489456450268</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.1706895343226402</v>
+        <v>-0.5347693233809983</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-1.025998513161944</v>
+        <v>-0.1698827370189405</v>
       </c>
       <c r="B55" t="n">
-        <v>-1.01000119366927</v>
+        <v>-0.4159270119684224</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-0.8678621069743628</v>
+        <v>-0.09617086707026469</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.8593363199027153</v>
+        <v>-0.2617903839688462</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-0.9847332872612947</v>
+        <v>-0.1906883189435502</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.9574652554325133</v>
+        <v>-0.3661170676443674</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-1.095475492266864</v>
+        <v>-0.1272461134363186</v>
       </c>
       <c r="B58" t="n">
-        <v>-1.113788161499286</v>
+        <v>-0.1836227512390941</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-0.8182346708968007</v>
+        <v>-0.2090118182953766</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.8213181491589795</v>
+        <v>-0.6763109878255052</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-0.4758208489765753</v>
+        <v>-0.2485642637880077</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.4715390701922896</v>
+        <v>-0.7153565954539691</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.3681450013763936</v>
+        <v>-0.2792493696662376</v>
       </c>
       <c r="B61" t="n">
-        <v>0.3745560803669674</v>
+        <v>-0.3578624880748587</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-1.227041832920137</v>
+        <v>-0.1511779146553517</v>
       </c>
       <c r="B62" t="n">
-        <v>-1.180732422524734</v>
+        <v>-0.1379193774320158</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-0.7335796194785329</v>
+        <v>-0.514044960024056</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.7169003287001159</v>
+        <v>-1.297489951101472</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-0.9569035599711018</v>
+        <v>-0.319776463580188</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.9452927006195759</v>
+        <v>-0.7017671301135775</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-0.05804184607457562</v>
+        <v>-0.176894792088321</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.05418643572509172</v>
+        <v>-0.4869009484686553</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-0.7672412531602049</v>
+        <v>-0.07475894167698741</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.7571224777859077</v>
+        <v>-0.01139451757782755</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-0.6735960482527751</v>
+        <v>0.07788704078412738</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.6763708999205192</v>
+        <v>0.3707335271770831</v>
       </c>
     </row>
   </sheetData>
